--- a/biology/Zoologie/Hespérie_de_la_crételle/Hespérie_de_la_crételle.xlsx
+++ b/biology/Zoologie/Hespérie_de_la_crételle/Hespérie_de_la_crételle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_cr%C3%A9telle</t>
+          <t>Hespérie_de_la_crételle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carterocephalus silvicola
 L’Hespérie de la crételle (Carterocephalus silvicolus ou C. silvicola) est un lépidoptère (papillon) de la famille des Hesperiidae, de la sous-famille des Heteropterinae et du genre Carterocephalus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_cr%C3%A9telle</t>
+          <t>Hespérie_de_la_crételle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carterocephalus  silvicola a été décrit par Johann Wilhelm Meigen en 1829[1].
-Noms vernaculaires
-L'Hespérie de la crételle se nomme en anglais Northern Checquered Skipper[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carterocephalus  silvicola a été décrit par Johann Wilhelm Meigen en 1829.
 </t>
         </is>
       </c>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_cr%C3%A9telle</t>
+          <t>Hespérie_de_la_crételle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,53 +554,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de la crételle se nomme en anglais Northern Checquered Skipper.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_crételle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_cr%C3%A9telle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hespérie de la crételle est un papillon de taille moyenne avec une envergure qui varie de 24 mm à 30 mm. Le dessus est de couleur orange très orné de marron avec aux antérieures une fine bordure, une ligne submarginale de points et des taches ovales et aux postérieures un fond marron couvert de grandes taches ovales orange qui peuvent ne laisser qu'une bordure marron[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de la crételle est un papillon de taille moyenne avec une envergure qui varie de 24 mm à 30 mm. Le dessus est de couleur orange très orné de marron avec aux antérieures une fine bordure, une ligne submarginale de points et des taches ovales et aux postérieures un fond marron couvert de grandes taches ovales orange qui peuvent ne laisser qu'une bordure marron,.
 			Carterocephalus silvicola ♂  MHNT
 			♂   △
 			♀
 			♀ △
-Chenille
-Elle est de couleur blanc crème ornée de lignes sur le dos et les flancs[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hesp%C3%A9rie_de_la_cr%C3%A9telle</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_cr%C3%A9telle</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Hespérie de la crételle vole en une seule génération de mai à juillet[2],[4].
-L'Hespérie de la crételle hiverne au stade de chenille[4],[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des poacées (graminées) : Bromus dont Bromus ramusa, Calamagrostis purpurea, Cynosurus dont Cynosurus cristatus, Elytrigia repens, Milium effusum[1],[2].
 </t>
         </is>
       </c>
@@ -599,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_cr%C3%A9telle</t>
+          <t>Hespérie_de_la_crételle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,16 +628,200 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est de couleur blanc crème ornée de lignes sur le dos et les flancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_crételle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_cr%C3%A9telle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de la crételle vole en une seule génération de mai à juillet,.
+L'Hespérie de la crételle hiverne au stade de chenille,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_crételle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_cr%C3%A9telle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des poacées (graminées) : Bromus dont Bromus ramusa, Calamagrostis purpurea, Cynosurus dont Cynosurus cristatus, Elytrigia repens, Milium effusum,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_crételle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_cr%C3%A9telle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hespérie de la crételle se rencontre dans le nord de l'Europe, nord de l'Allemagne et de la Pologne, États baltes, Danemark, Norvège, Suède et Finlande, et en Asie en Sibérie, en Mongolie au Kamtchatka et au Japon[1],[2].
-Biotope
-L'Hespérie  de la crételle réside dans les clairières fleuries humides[2].
-Protection
-L'Hespérie de la crételle figure sur la liste rouge des papillons diurnes de Norvège[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de la crételle se rencontre dans le nord de l'Europe, nord de l'Allemagne et de la Pologne, États baltes, Danemark, Norvège, Suède et Finlande, et en Asie en Sibérie, en Mongolie au Kamtchatka et au Japon,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_crételle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_cr%C3%A9telle</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie  de la crételle réside dans les clairières fleuries humides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_crételle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_cr%C3%A9telle</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de la crételle figure sur la liste rouge des papillons diurnes de Norvège.
 </t>
         </is>
       </c>
